--- a/data/trans_orig/P36BPD14_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD14_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>65673</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49197</v>
+        <v>49401</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89568</v>
+        <v>88335</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09594253147123695</v>
+        <v>0.09594253147123692</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07187260339154317</v>
+        <v>0.07216991133891278</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1308507104300673</v>
+        <v>0.1290498064618843</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>125</v>
@@ -762,19 +762,19 @@
         <v>77448</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64418</v>
+        <v>64840</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92542</v>
+        <v>92056</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1061791385424016</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08831531120315644</v>
+        <v>0.08889367699925066</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1268719086634191</v>
+        <v>0.1262060133518086</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>179</v>
@@ -783,19 +783,19 @@
         <v>143122</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>122042</v>
+        <v>121197</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>169944</v>
+        <v>167228</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1012233849639741</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08631469596874594</v>
+        <v>0.08571728008594176</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1201935233529684</v>
+        <v>0.1182727509830607</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>307693</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>281319</v>
+        <v>278451</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>335102</v>
+        <v>337135</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4495105415552452</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4109808363872224</v>
+        <v>0.4067906725983407</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.48955275612968</v>
+        <v>0.4925227866630922</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>516</v>
@@ -833,19 +833,19 @@
         <v>313594</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>293713</v>
+        <v>289875</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>336400</v>
+        <v>335064</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4299269535087204</v>
+        <v>0.4299269535087203</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4026703951813762</v>
+        <v>0.3974094799795002</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4611931170287848</v>
+        <v>0.4593619382722774</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>842</v>
@@ -854,19 +854,19 @@
         <v>621287</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>583151</v>
+        <v>586767</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>659060</v>
+        <v>656536</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4394077742401714</v>
+        <v>0.4394077742401713</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4124359967777819</v>
+        <v>0.4149930605989942</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4661227098600894</v>
+        <v>0.4643377627017899</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>311141</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>283621</v>
+        <v>281618</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>338721</v>
+        <v>338740</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4545469269735178</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4143431756243984</v>
+        <v>0.4114179208036367</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4948387965213469</v>
+        <v>0.4948666346545023</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>592</v>
@@ -904,19 +904,19 @@
         <v>338370</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>313506</v>
+        <v>317348</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>359242</v>
+        <v>361872</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4638939079488781</v>
+        <v>0.463893907948878</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4298069148680815</v>
+        <v>0.4350737087760079</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4925084422476461</v>
+        <v>0.4961146432136516</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>935</v>
@@ -925,19 +925,19 @@
         <v>649510</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>611640</v>
+        <v>613172</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>683674</v>
+        <v>686273</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4593688407958545</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4325849794635752</v>
+        <v>0.433668510633635</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4835312375510753</v>
+        <v>0.4853694555245874</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>90244</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>70043</v>
+        <v>71261</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>116119</v>
+        <v>114076</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.08639422644510247</v>
+        <v>0.08639422644510246</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06705522310534373</v>
+        <v>0.06822075291607693</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1111649264523301</v>
+        <v>0.1092090817019677</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>115</v>
@@ -1050,19 +1050,19 @@
         <v>88260</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>74015</v>
+        <v>73086</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>108094</v>
+        <v>106982</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.08288193737913691</v>
+        <v>0.08288193737913689</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06950477615487029</v>
+        <v>0.06863306421062998</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1015073886083941</v>
+        <v>0.1004634935678249</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>190</v>
@@ -1071,19 +1071,19 @@
         <v>178504</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>151401</v>
+        <v>154224</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>207905</v>
+        <v>208432</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08462116234750088</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07177265199408162</v>
+        <v>0.07311118348071435</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09855874937555634</v>
+        <v>0.09880891508824265</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>490604</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>453949</v>
+        <v>453422</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>523054</v>
+        <v>526744</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4696742748407428</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4345830398023539</v>
+        <v>0.4340785410504007</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.500739556670094</v>
+        <v>0.5042727129642993</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>709</v>
@@ -1121,19 +1121,19 @@
         <v>518114</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>489684</v>
+        <v>488518</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>547086</v>
+        <v>545477</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.486543925059074</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4598459919931402</v>
+        <v>0.4587512852624721</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5137507778020604</v>
+        <v>0.5122395953231784</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1162</v>
@@ -1142,19 +1142,19 @@
         <v>1008718</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>957085</v>
+        <v>960809</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1050972</v>
+        <v>1050882</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4781903652249483</v>
+        <v>0.4781903652249485</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4537134463187782</v>
+        <v>0.4554787711368266</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4982213210213689</v>
+        <v>0.4981784804557746</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>463714</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>429427</v>
+        <v>431302</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>499504</v>
+        <v>502387</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4439314987141548</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4111069734556149</v>
+        <v>0.412902082356407</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4781947749527063</v>
+        <v>0.4809549012462009</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>687</v>
@@ -1192,19 +1192,19 @@
         <v>458512</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>429533</v>
+        <v>431847</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>487049</v>
+        <v>484872</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4305741375617891</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4033602169392061</v>
+        <v>0.4055336971034327</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4573718244187084</v>
+        <v>0.4553278489698103</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1119</v>
@@ -1213,19 +1213,19 @@
         <v>922226</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>878508</v>
+        <v>877757</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>970568</v>
+        <v>966569</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4371884724275508</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4164635332286826</v>
+        <v>0.416107202094545</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4601052840176109</v>
+        <v>0.458209434273031</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>92657</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>72277</v>
+        <v>73080</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>116746</v>
+        <v>118801</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.115510832353371</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09010384669513591</v>
+        <v>0.0911047457548104</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1455413929515685</v>
+        <v>0.1481027760879411</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>144</v>
@@ -1338,19 +1338,19 @@
         <v>110154</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>93633</v>
+        <v>94097</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>131055</v>
+        <v>129903</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.1364750483167842</v>
+        <v>0.1364750483167843</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1160065032149667</v>
+        <v>0.1165809429448528</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1623710178710983</v>
+        <v>0.1609429415555408</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>215</v>
@@ -1359,19 +1359,19 @@
         <v>202811</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>176038</v>
+        <v>175266</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>232828</v>
+        <v>233148</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1260254073187999</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1093887954531811</v>
+        <v>0.1089092449698521</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1446776348994443</v>
+        <v>0.1448768287409666</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>330115</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>296380</v>
+        <v>299452</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>362203</v>
+        <v>361183</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4115376207460275</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3694810774707471</v>
+        <v>0.3733112167191133</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4515396155036224</v>
+        <v>0.4502678100065912</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>414</v>
@@ -1409,19 +1409,19 @@
         <v>325040</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>298931</v>
+        <v>300767</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>350945</v>
+        <v>350936</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4027084294939129</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3703603506768298</v>
+        <v>0.3726356987240387</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4348033242056396</v>
+        <v>0.4347918463091841</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>691</v>
@@ -1430,19 +1430,19 @@
         <v>655155</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>616281</v>
+        <v>612140</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>698877</v>
+        <v>696301</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4071093514767887</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3829530207535412</v>
+        <v>0.3803795781591616</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4342778837383823</v>
+        <v>0.4326768157708769</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>379379</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>346027</v>
+        <v>342688</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>413252</v>
+        <v>411337</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4729515469006013</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4313737843262538</v>
+        <v>0.4272109148129133</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5151799894194166</v>
+        <v>0.5127919973747339</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>486</v>
@@ -1480,19 +1480,19 @@
         <v>371941</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>344563</v>
+        <v>347230</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>397307</v>
+        <v>399492</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4608165221893029</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4268969218700144</v>
+        <v>0.430200318543457</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4922437429515089</v>
+        <v>0.494950714027134</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>813</v>
@@ -1501,19 +1501,19 @@
         <v>751320</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>713640</v>
+        <v>707681</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>797166</v>
+        <v>793359</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4668652412044114</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4434512647346803</v>
+        <v>0.4397482298660635</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4953537291020989</v>
+        <v>0.4929880899536135</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>82640</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65198</v>
+        <v>64661</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103273</v>
+        <v>104743</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08370062031707177</v>
+        <v>0.0837006203170718</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06603494335131613</v>
+        <v>0.0654908162010271</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1045990129046196</v>
+        <v>0.1060874331660813</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>146</v>
@@ -1626,19 +1626,19 @@
         <v>104481</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>87138</v>
+        <v>88538</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>121600</v>
+        <v>121982</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09336663257384788</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07786861027061014</v>
+        <v>0.07911921866579159</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1086643033687387</v>
+        <v>0.109005794239061</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>225</v>
@@ -1647,19 +1647,19 @@
         <v>187121</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>163606</v>
+        <v>164114</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>215806</v>
+        <v>215166</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.088835848026904</v>
+        <v>0.08883584802690399</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07767210674221557</v>
+        <v>0.07791346551405892</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1024543863379601</v>
+        <v>0.1021501908768622</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>389590</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>356135</v>
+        <v>359199</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>417619</v>
+        <v>424175</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.394591780169648</v>
+        <v>0.3945917801696481</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.36070728852424</v>
+        <v>0.3638102934635327</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4229810007183883</v>
+        <v>0.4296205568483429</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>588</v>
@@ -1697,19 +1697,19 @@
         <v>431494</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>401575</v>
+        <v>404928</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>461217</v>
+        <v>462041</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3855926972485678</v>
+        <v>0.3855926972485677</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3588564228646917</v>
+        <v>0.3618529693890483</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4121539017359769</v>
+        <v>0.4128900905963206</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1003</v>
@@ -1718,19 +1718,19 @@
         <v>821084</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>777760</v>
+        <v>776911</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>862910</v>
+        <v>866997</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3898108696191763</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3692425329165137</v>
+        <v>0.3688395318778575</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4096674587506202</v>
+        <v>0.4116080839373915</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>515094</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>485033</v>
+        <v>482910</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>547144</v>
+        <v>548703</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5217075995132799</v>
+        <v>0.5217075995132802</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4912601907995524</v>
+        <v>0.489110376424624</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5541682029019706</v>
+        <v>0.5557480111123054</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>828</v>
@@ -1768,19 +1768,19 @@
         <v>583066</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>553555</v>
+        <v>551903</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>612417</v>
+        <v>614137</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.5210406701775845</v>
+        <v>0.5210406701775846</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4946694039584193</v>
+        <v>0.4931932215522616</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5472696431648957</v>
+        <v>0.5488064518660569</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1336</v>
@@ -1789,19 +1789,19 @@
         <v>1098161</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1052003</v>
+        <v>1052211</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1146257</v>
+        <v>1141923</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5213532823539195</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4994397854754243</v>
+        <v>0.4995384215864309</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5441868368601297</v>
+        <v>0.5421296419385361</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>331214</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>293821</v>
+        <v>292941</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>378715</v>
+        <v>376361</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09413388479975729</v>
+        <v>0.09413388479975732</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08350625227415669</v>
+        <v>0.08325634396294566</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1076339961652968</v>
+        <v>0.1069649074203645</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>530</v>
@@ -1914,19 +1914,19 @@
         <v>380343</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>344763</v>
+        <v>344913</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>414305</v>
+        <v>415615</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1022297293775189</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09266640264143954</v>
+        <v>0.09270682959755464</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1113581821858809</v>
+        <v>0.1117102326035946</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>809</v>
@@ -1935,19 +1935,19 @@
         <v>711557</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>661126</v>
+        <v>660361</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>762719</v>
+        <v>765318</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09829472200968513</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09132815039116197</v>
+        <v>0.09122242533462577</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.105362178432318</v>
+        <v>0.1057212634777853</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>1518003</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1451102</v>
+        <v>1453826</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1581249</v>
+        <v>1590321</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4314290964053814</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.412415433586277</v>
+        <v>0.4131896049288997</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4494043103611435</v>
+        <v>0.4519826282966538</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2227</v>
@@ -1985,19 +1985,19 @@
         <v>1588242</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1532148</v>
+        <v>1531076</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1639078</v>
+        <v>1645769</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4268923097354552</v>
+        <v>0.4268923097354551</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4118151927877878</v>
+        <v>0.4115271633610562</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.440556239323771</v>
+        <v>0.442354626296504</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3698</v>
@@ -2006,19 +2006,19 @@
         <v>3106244</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3018505</v>
+        <v>3018259</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3187265</v>
+        <v>3183025</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4290974272869318</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4169770375173676</v>
+        <v>0.4169431461869089</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.440289568367107</v>
+        <v>0.4397039277359153</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>1669328</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1604345</v>
+        <v>1602018</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1739394</v>
+        <v>1733612</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4744370187948614</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4559683110150393</v>
+        <v>0.4553070115250095</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4943504856471552</v>
+        <v>0.4927071663419182</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2593</v>
@@ -2056,19 +2056,19 @@
         <v>1751889</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1701218</v>
+        <v>1697051</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1808790</v>
+        <v>1809202</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4708779608870259</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4572584809128698</v>
+        <v>0.4561382990204263</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4861719065000761</v>
+        <v>0.4862827644631733</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4203</v>
@@ -2077,19 +2077,19 @@
         <v>3421217</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3338378</v>
+        <v>3336822</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3506162</v>
+        <v>3505390</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.472607850703383</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4611644218041301</v>
+        <v>0.4609495030731572</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4843421699725988</v>
+        <v>0.484235560289498</v>
       </c>
     </row>
     <row r="23">
